--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -691,28 +691,28 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.65</v>
@@ -721,37 +721,37 @@
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +808,7 @@
         <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.48</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1582,7 +1582,7 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
         <v>2.2</v>
@@ -1756,16 +1756,16 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1780,7 +1780,7 @@
         <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1795,13 +1795,13 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.85</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,13 +1825,13 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1846,10 +1846,10 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>5.1</v>
@@ -700,16 +700,16 @@
         <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
         <v>2.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -721,7 +721,7 @@
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
         <v>15.5</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1483,16 +1483,16 @@
         <v>1.49</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,22 +1501,22 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1555,7 +1555,7 @@
         <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>9.6</v>
@@ -1573,13 +1573,13 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
         <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO8" t="n">
         <v>85</v>
@@ -1753,7 +1753,7 @@
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1762,10 +1762,10 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1780,7 +1780,7 @@
         <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1798,7 +1798,7 @@
         <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
         <v>2.16</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.5</v>
@@ -679,16 +679,16 @@
         <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>5.1</v>
@@ -697,22 +697,22 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
         <v>1.56</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V2" t="n">
         <v>1.65</v>
@@ -721,7 +721,7 @@
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
         <v>15.5</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -742,10 +742,10 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
         <v>14</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>19.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -808,13 +808,13 @@
         <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>5.4</v>
@@ -835,7 +835,7 @@
         <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -970,7 +970,7 @@
         <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,13 +1078,13 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I5" t="n">
         <v>1.61</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1216,10 +1216,10 @@
         <v>1.55</v>
       </c>
       <c r="I6" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>7.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>2.46</v>
@@ -1552,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
         <v>9.800000000000001</v>
@@ -1564,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>960</v>
       </c>
       <c r="AJ8" t="n">
         <v>14</v>
@@ -1573,16 +1573,16 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1762,7 +1762,7 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1777,13 +1777,13 @@
         <v>1.37</v>
       </c>
       <c r="P10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.77</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>3.85</v>
@@ -1792,46 +1792,46 @@
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
         <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1846,10 +1846,10 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
         <v>1.96</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
         <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -688,10 +688,10 @@
         <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
@@ -700,43 +700,43 @@
         <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
         <v>2.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -745,22 +745,22 @@
         <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.5</v>
@@ -820,94 +820,94 @@
         <v>5.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
         <v>9.199999999999999</v>
@@ -970,7 +970,7 @@
         <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,13 +1078,13 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1105,7 +1105,7 @@
         <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>1.71</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.4</v>
@@ -1240,7 +1240,7 @@
         <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>7.4</v>
@@ -1504,10 +1504,10 @@
         <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1573,7 +1573,7 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
         <v>90</v>
@@ -1582,7 +1582,7 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1762,7 +1762,7 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1777,34 +1777,34 @@
         <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
         <v>5.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
         <v>2.98</v>
@@ -676,7 +676,7 @@
         <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -685,13 +685,13 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
@@ -703,10 +703,10 @@
         <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
@@ -943,10 +943,10 @@
         <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -955,94 +955,94 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1483,7 +1483,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
         <v>7.4</v>
@@ -1504,25 +1504,25 @@
         <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
         <v>9.6</v>
@@ -1573,16 +1573,16 @@
         <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1750,10 @@
         <v>2.06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1885,19 +1885,19 @@
         <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
         <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -715,10 +715,10 @@
         <v>2.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -940,16 +940,16 @@
         <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -988,7 +988,7 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1084,106 +1084,106 @@
         <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>2.98</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.71</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>6.8</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.71</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,260 +1733,395 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>1.92</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>2.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>5.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>3.05</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>4.4</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1.96</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
         <v>2.5</v>
@@ -700,13 +700,13 @@
         <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
@@ -1012,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>9.800000000000001</v>
@@ -1114,10 +1114,10 @@
         <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
         <v>2.66</v>
@@ -1249,7 +1249,7 @@
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1342,118 +1342,118 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK9" t="n">
         <v>27</v>
       </c>
-      <c r="AE9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.4</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -1733,33 +1733,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,260 +1868,530 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16</v>
-      </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>1.92</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>2.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>3.2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>5.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>3.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>4.4</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>1.96</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
         <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
         <v>2.64</v>
@@ -685,7 +685,7 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -694,22 +694,22 @@
         <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
         <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>2.48</v>
@@ -718,13 +718,13 @@
         <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -748,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
         <v>1.84</v>
@@ -1363,7 +1363,7 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>4.2</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
         <v>1.07</v>
@@ -1639,13 +1639,13 @@
         <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
         <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
@@ -1654,10 +1654,10 @@
         <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
         <v>1.23</v>
@@ -1747,118 +1747,118 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>1.49</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4</v>
+        <v>2.56</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.49</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,260 +2138,395 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>1.92</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>2.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>3.2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>5.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>3.05</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>4.4</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -691,16 +691,16 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.53</v>
@@ -817,7 +817,7 @@
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,7 +829,7 @@
         <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
         <v>1.76</v>
@@ -952,7 +952,7 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1345,7 +1345,7 @@
         <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>1.55</v>
@@ -1357,7 +1357,7 @@
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1645,7 +1645,7 @@
         <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
         <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.18</v>
@@ -1771,37 +1771,37 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S10" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y10" t="n">
         <v>75</v>
@@ -1813,7 +1813,7 @@
         <v>610</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
         <v>23</v>
@@ -1834,7 +1834,7 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -1843,16 +1843,16 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AO10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
         <v>7.2</v>
       </c>
       <c r="I12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
         <v>5.2</v>
@@ -2041,7 +2041,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
@@ -2059,10 +2059,10 @@
         <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
         <v>1.15</v>
@@ -2080,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2095,7 +2095,7 @@
         <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>9.6</v>
@@ -2113,13 +2113,13 @@
         <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO12" t="n">
         <v>80</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.01</v>
       </c>
-      <c r="K13" t="n">
-        <v>950</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,28 +2290,28 @@
         <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.38</v>
@@ -2320,13 +2320,13 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
         <v>1.87</v>
@@ -2338,10 +2338,10 @@
         <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,103 +667,103 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,108 +788,108 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Wofoo Tai Po</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.199999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.28</v>
       </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.1</v>
-      </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,114 +923,114 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.84</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.14</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.800000000000001</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>10.5</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>2.66</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="AF5" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>370</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.98</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>2.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI6" t="n">
         <v>55</v>
       </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.55</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.14</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>9.199999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.07</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>1.64</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
-        <v>3.85</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.01</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>3.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>1.64</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.18</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="R10" t="n">
-        <v>2.06</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.68</v>
+        <v>5.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W10" t="n">
         <v>2</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL10" t="n">
         <v>60</v>
       </c>
-      <c r="Y10" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>610</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.82</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.56</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.01</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="T11" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.49</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
         <v>32</v>
       </c>
-      <c r="Z12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG12" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.96</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>26</v>
       </c>
-      <c r="AA13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,261 +2273,666 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>2.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>16</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
+      <c r="F16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>950</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:35:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -670,7 +670,7 @@
         <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
         <v>2.58</v>
@@ -682,7 +682,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -700,7 +700,7 @@
         <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
@@ -715,10 +715,10 @@
         <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -757,19 +757,19 @@
         <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -808,7 +808,7 @@
         <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
         <v>2.32</v>
@@ -817,7 +817,7 @@
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -835,7 +835,7 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
@@ -955,7 +955,7 @@
         <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1084,10 +1084,10 @@
         <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1117,7 +1117,7 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1165,7 +1165,7 @@
         <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1240,7 +1240,7 @@
         <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1255,7 +1255,7 @@
         <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="W6" t="n">
         <v>1.11</v>
@@ -1345,10 +1345,10 @@
         <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
         <v>2.92</v>
@@ -1366,7 +1366,7 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
@@ -1375,7 +1375,7 @@
         <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.23</v>
@@ -1393,7 +1393,7 @@
         <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1516,7 +1516,7 @@
         <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
         <v>1.3</v>
@@ -1621,13 +1621,13 @@
         <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J9" t="n">
         <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.16</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R9" t="n">
         <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,16 +1750,16 @@
         <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1792,13 +1792,13 @@
         <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2032,10 +2032,10 @@
         <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2071,10 +2071,10 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2110,7 +2110,7 @@
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2119,7 +2119,7 @@
         <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO12" t="n">
         <v>12.5</v>
@@ -2164,7 +2164,7 @@
         <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
         <v>5.3</v>
@@ -2194,10 +2194,10 @@
         <v>2.42</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
         <v>1.15</v>
@@ -2227,7 +2227,7 @@
         <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>
@@ -2242,10 +2242,10 @@
         <v>70</v>
       </c>
       <c r="AJ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK13" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13</v>
       </c>
       <c r="AL13" t="n">
         <v>26</v>
@@ -2254,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="I14" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
@@ -2326,19 +2326,19 @@
         <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
         <v>1.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X14" t="n">
         <v>30</v>
@@ -2365,16 +2365,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
         <v>70</v>
@@ -2383,16 +2383,16 @@
         <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2446,13 +2446,13 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
         <v>2.08</v>
@@ -2464,16 +2464,16 @@
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
         <v>14.5</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2521,7 +2521,7 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
         <v>23</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2608,7 +2608,7 @@
         <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,10 +2695,10 @@
         <v>1.19</v>
       </c>
       <c r="G17" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="H17" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
         <v>21</v>
@@ -2707,7 +2707,7 @@
         <v>6.2</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>16.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.15</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
         <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.64</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2866,13 +2866,13 @@
         <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>9.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,88 +826,88 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.16</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.22</v>
       </c>
       <c r="T3" t="n">
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
@@ -982,7 +982,7 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
@@ -1075,7 +1075,7 @@
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
         <v>5.8</v>
@@ -1141,7 +1141,7 @@
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>28</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1240,13 +1240,13 @@
         <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
@@ -1258,13 +1258,13 @@
         <v>2.92</v>
       </c>
       <c r="W6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
         <v>8.4</v>
@@ -1297,7 +1297,7 @@
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AK6" t="n">
         <v>210</v>
@@ -1348,19 +1348,19 @@
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I7" t="n">
         <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1384,16 +1384,16 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
@@ -1408,7 +1408,7 @@
         <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="I9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K9" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>1.16</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
         <v>2.02</v>
@@ -1759,7 +1759,7 @@
         <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1774,7 +1774,7 @@
         <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1885,91 +1885,91 @@
         <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J11" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>10.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>8.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="S11" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="X11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
         <v>80</v>
       </c>
       <c r="Z11" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AA11" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ11" t="n">
         <v>11.5</v>
@@ -1984,10 +1984,10 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="AO11" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
         <v>7.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.4</v>
       </c>
       <c r="J13" t="n">
         <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2191,19 +2191,19 @@
         <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2212,7 +2212,7 @@
         <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
         <v>200</v>
@@ -2227,13 +2227,13 @@
         <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2329,16 +2329,16 @@
         <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
         <v>30</v>
@@ -2350,10 +2350,10 @@
         <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>11.5</v>
@@ -2365,10 +2365,10 @@
         <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2377,10 +2377,10 @@
         <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
         <v>40</v>
@@ -2392,7 +2392,7 @@
         <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
         <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2461,7 +2461,7 @@
         <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>1.86</v>
@@ -2560,13 +2560,13 @@
         <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.45</v>
@@ -2593,7 +2593,7 @@
         <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
         <v>3.45</v>
@@ -2608,7 +2608,7 @@
         <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
         <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K17" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.15</v>
@@ -2722,28 +2722,28 @@
         <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="S17" t="n">
         <v>1.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2830,10 +2830,10 @@
         <v>1.86</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -2845,16 +2845,16 @@
         <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
         <v>1.74</v>
@@ -2863,22 +2863,22 @@
         <v>1.97</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
         <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2890,13 +2890,13 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>3.45</v>
@@ -691,37 +691,37 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>50</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,85 +829,85 @@
         <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
         <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>13</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>5.8</v>
@@ -1084,7 +1084,7 @@
         <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1102,7 +1102,7 @@
         <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
         <v>2.4</v>
@@ -1210,7 +1210,7 @@
         <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
         <v>1.47</v>
@@ -1219,7 +1219,7 @@
         <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1231,31 +1231,31 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W6" t="n">
         <v>1.1</v>
@@ -1294,7 +1294,7 @@
         <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>440</v>
@@ -1351,10 +1351,10 @@
         <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>3.1</v>
@@ -1405,13 +1405,13 @@
         <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>13</v>
@@ -1420,13 +1420,13 @@
         <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
         <v>75</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
         <v>7.2</v>
@@ -1486,7 +1486,7 @@
         <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1516,7 +1516,7 @@
         <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1525,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W8" t="n">
         <v>1.16</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.55</v>
@@ -1771,73 +1771,73 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O10" t="n">
         <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q10" t="n">
         <v>2.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
         <v>5.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -1849,10 +1849,10 @@
         <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="S11" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="T11" t="n">
         <v>1.86</v>
@@ -1933,13 +1933,13 @@
         <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="n">
         <v>220</v>
@@ -1984,7 +1984,7 @@
         <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AO11" t="n">
         <v>220</v>
@@ -2035,7 +2035,7 @@
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2077,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>7</v>
       </c>
-      <c r="I13" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2188,22 +2188,22 @@
         <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2215,16 +2215,16 @@
         <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>75</v>
@@ -2248,13 +2248,13 @@
         <v>13.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2290,7 +2290,7 @@
         <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
         <v>1.93</v>
@@ -2311,34 +2311,34 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
         <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
         <v>30</v>
@@ -2383,7 +2383,7 @@
         <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>55</v>
@@ -2428,16 +2428,16 @@
         <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2452,25 +2452,25 @@
         <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.78</v>
@@ -2482,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,13 +2491,13 @@
         <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
@@ -2566,13 +2566,13 @@
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2587,10 +2587,10 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
         <v>2</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G17" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
         <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>1.15</v>
@@ -2719,7 +2719,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
         <v>3.7</v>
@@ -2728,13 +2728,13 @@
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="S17" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
@@ -2833,10 +2833,10 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -694,10 +694,10 @@
         <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.79</v>
@@ -706,10 +706,10 @@
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.4</v>
@@ -721,7 +721,7 @@
         <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
@@ -730,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
         <v>14</v>
@@ -757,13 +757,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK2" t="n">
         <v>50</v>
       </c>
-      <c r="AK2" t="n">
-        <v>32</v>
-      </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -862,52 +862,52 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
         <v>1.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -982,10 +982,10 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
@@ -994,7 +994,7 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
@@ -1078,7 +1078,7 @@
         <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>7.2</v>
@@ -1087,7 +1087,7 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,7 +1096,7 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
@@ -1141,7 +1141,7 @@
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
         <v>28</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1240,7 +1240,7 @@
         <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1249,13 +1249,13 @@
         <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
         <v>1.1</v>
@@ -1264,13 +1264,13 @@
         <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1285,16 +1285,16 @@
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>440</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
         <v>2.86</v>
@@ -1354,13 +1354,13 @@
         <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1405,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
         <v>9.800000000000001</v>
@@ -1432,10 +1432,10 @@
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
         <v>75</v>
@@ -1444,7 +1444,7 @@
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
         <v>40</v>
@@ -1480,7 +1480,7 @@
         <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.55</v>
@@ -1507,7 +1507,7 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
         <v>1.64</v>
@@ -1555,7 +1555,7 @@
         <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>25</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.3</v>
@@ -1651,7 +1651,7 @@
         <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1663,7 +1663,7 @@
         <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1756,100 +1756,100 @@
         <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
         <v>2.06</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
         <v>200</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>210</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.17</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.15</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1909,85 +1909,85 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="n">
         <v>2.24</v>
       </c>
       <c r="S11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="n">
         <v>220</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>260</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
         <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="AO11" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -2029,25 +2029,25 @@
         <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q12" t="n">
         <v>1.44</v>
@@ -2056,10 +2056,10 @@
         <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T12" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
         <v>2.84</v>
@@ -2080,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -2095,7 +2095,7 @@
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2104,25 +2104,25 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2152,28 +2152,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.9</v>
@@ -2185,16 +2185,16 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2248,16 +2248,16 @@
         <v>13.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>5.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
@@ -2335,7 +2335,7 @@
         <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
@@ -2347,13 +2347,13 @@
         <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
         <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
         <v>11.5</v>
@@ -2362,7 +2362,7 @@
         <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
         <v>34</v>
@@ -2380,7 +2380,7 @@
         <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2389,10 +2389,10 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
         <v>2.28</v>
@@ -2431,13 +2431,13 @@
         <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2449,16 +2449,16 @@
         <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2470,43 +2470,43 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
         <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2518,13 +2518,13 @@
         <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
@@ -2590,7 +2590,7 @@
         <v>1.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2602,13 +2602,13 @@
         <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2710,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2728,7 +2728,7 @@
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S17" t="n">
         <v>1.66</v>
@@ -2833,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
         <v>5.3</v>
@@ -2848,7 +2848,7 @@
         <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>3.15</v>
@@ -2860,7 +2860,7 @@
         <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
         <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,40 +694,40 @@
         <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
         <v>70</v>
@@ -739,40 +739,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AE2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="n">
         <v>22</v>
       </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>23</v>
-      </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -826,13 +826,13 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.47</v>
@@ -841,34 +841,34 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
@@ -880,31 +880,31 @@
         <v>17.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>28</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>7.8</v>
@@ -964,7 +964,7 @@
         <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
@@ -982,7 +982,7 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>3.05</v>
@@ -997,16 +997,16 @@
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>970</v>
@@ -1018,13 +1018,13 @@
         <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
@@ -1096,7 +1096,7 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
@@ -1117,16 +1117,16 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>970</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="n">
         <v>160</v>
@@ -1156,19 +1156,19 @@
         <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
         <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1252,7 +1252,7 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1267,7 +1267,7 @@
         <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1294,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
         <v>440</v>
@@ -1312,7 +1312,7 @@
         <v>340</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.94</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1381,7 +1381,7 @@
         <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
         <v>1.94</v>
@@ -1390,7 +1390,7 @@
         <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
         <v>1.48</v>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
         <v>970</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
@@ -1438,16 +1438,16 @@
         <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1513,19 +1513,19 @@
         <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W8" t="n">
         <v>1.16</v>
@@ -1543,10 +1543,10 @@
         <v>970</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1555,34 +1555,34 @@
         <v>970</v>
       </c>
       <c r="AF8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AG8" t="n">
         <v>55</v>
       </c>
-      <c r="AG8" t="n">
-        <v>25</v>
-      </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="AL8" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="AO8" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
         <v>1.17</v>
@@ -1636,37 +1636,37 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,31 +1690,31 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
         <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1786,13 +1786,13 @@
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
         <v>1.22</v>
@@ -1801,16 +1801,16 @@
         <v>2.06</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>6.6</v>
@@ -1819,40 +1819,40 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
         <v>10</v>
       </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
         <v>1.22</v>
@@ -1891,10 +1891,10 @@
         <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>10.5</v>
@@ -1906,88 +1906,88 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AE11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="AJ11" t="n">
         <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -2029,7 +2029,7 @@
         <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2041,28 +2041,28 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q12" t="n">
         <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
         <v>1.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="V12" t="n">
         <v>1.67</v>
@@ -2071,7 +2071,7 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2104,25 +2104,25 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
         <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>7</v>
       </c>
-      <c r="I13" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K13" t="n">
         <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2185,13 +2185,13 @@
         <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
@@ -2203,13 +2203,13 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
@@ -2218,10 +2218,10 @@
         <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>25</v>
@@ -2236,7 +2236,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>5.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,85 +2287,85 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>19.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="n">
         <v>19.5</v>
@@ -2377,22 +2377,22 @@
         <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2449,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
         <v>1.77</v>
@@ -2458,76 +2458,76 @@
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
         <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2566,13 +2566,13 @@
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2587,22 +2587,22 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
         <v>1.27</v>
@@ -2611,7 +2611,7 @@
         <v>1.98</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2620,13 +2620,13 @@
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2707,7 +2707,7 @@
         <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
         <v>1.16</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2860,7 +2860,7 @@
         <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
@@ -2875,7 +2875,7 @@
         <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
         <v>2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -673,19 +673,19 @@
         <v>2.92</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,34 +694,34 @@
         <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>13.5</v>
@@ -736,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -754,7 +754,7 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>44</v>
@@ -763,13 +763,13 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>18.5</v>
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
         <v>2.54</v>
@@ -853,61 +853,61 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
       </c>
-      <c r="AB3" t="n">
-        <v>25</v>
-      </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -967,25 +967,25 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V4" t="n">
         <v>3.1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.05</v>
       </c>
       <c r="W4" t="n">
         <v>1.1</v>
@@ -994,10 +994,10 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
@@ -1009,10 +1009,10 @@
         <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
         <v>110</v>
@@ -1021,7 +1021,7 @@
         <v>100</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
         <v>44</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
@@ -1096,13 +1096,13 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
         <v>2.4</v>
@@ -1123,10 +1123,10 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>970</v>
@@ -1147,19 +1147,19 @@
         <v>85</v>
       </c>
       <c r="AE5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>85</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
         <v>970</v>
@@ -1168,13 +1168,13 @@
         <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1231,16 +1231,16 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1252,7 +1252,7 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1261,7 +1261,7 @@
         <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
@@ -1273,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1291,13 +1291,13 @@
         <v>44</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="AK6" t="n">
         <v>210</v>
@@ -1309,7 +1309,7 @@
         <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
@@ -1351,7 +1351,7 @@
         <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
@@ -1360,34 +1360,34 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>1.51</v>
@@ -1396,22 +1396,22 @@
         <v>1.48</v>
       </c>
       <c r="X7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>13</v>
@@ -1420,34 +1420,34 @@
         <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.6</v>
@@ -1534,13 +1534,13 @@
         <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="n">
         <v>48</v>
@@ -1564,7 +1564,7 @@
         <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1576,7 +1576,7 @@
         <v>330</v>
       </c>
       <c r="AM8" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>270</v>
@@ -1615,19 +1615,19 @@
         <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.17</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
@@ -1651,7 +1651,7 @@
         <v>1.92</v>
       </c>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -1663,7 +1663,7 @@
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
         <v>55</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1789,70 +1789,70 @@
         <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.17</v>
@@ -1909,22 +1909,22 @@
         <v>10.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
@@ -1933,22 +1933,22 @@
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="X11" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="Z11" t="n">
         <v>210</v>
       </c>
       <c r="AA11" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="AB11" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
         <v>48</v>
@@ -1960,34 +1960,34 @@
         <v>230</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="n">
         <v>400</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AO11" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
         <v>2.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="Q12" t="n">
         <v>1.44</v>
@@ -2071,16 +2071,16 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -2095,25 +2095,25 @@
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
@@ -2179,19 +2179,19 @@
         <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
@@ -2206,7 +2206,7 @@
         <v>2.88</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>30</v>
@@ -2221,10 +2221,10 @@
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>75</v>
@@ -2251,10 +2251,10 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO13" t="n">
         <v>75</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2329,19 +2329,19 @@
         <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2365,7 +2365,7 @@
         <v>19.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG14" t="n">
         <v>19.5</v>
@@ -2377,13 +2377,13 @@
         <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AM14" t="n">
         <v>260</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
         <v>2.24</v>
@@ -2431,7 +2431,7 @@
         <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2470,37 +2470,37 @@
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
         <v>1.81</v>
       </c>
       <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
         <v>13</v>
       </c>
-      <c r="Y15" t="n">
-        <v>14</v>
-      </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
         <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
@@ -2509,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -2521,13 +2521,13 @@
         <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2572,7 +2572,7 @@
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,16 +2590,16 @@
         <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R16" t="n">
         <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>1.99</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2656,10 +2656,10 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.19</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.25</v>
       </c>
       <c r="H17" t="n">
         <v>12</v>
@@ -2704,10 +2704,10 @@
         <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="K17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.16</v>
@@ -2719,7 +2719,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
         <v>3.7</v>
@@ -2728,10 +2728,10 @@
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="T17" t="n">
         <v>1.75</v>
@@ -2743,7 +2743,7 @@
         <v>1.05</v>
       </c>
       <c r="W17" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2857,10 +2857,10 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
@@ -2872,10 +2872,10 @@
         <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>960</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -946,31 +946,31 @@
         <v>1.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -982,19 +982,19 @@
         <v>2.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>8.199999999999999</v>
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
         <v>110</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
         <v>1.21</v>
@@ -1117,13 +1117,13 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1150,7 +1150,7 @@
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>40</v>
@@ -1219,13 +1219,13 @@
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1252,7 +1252,7 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
         <v>3</v>
@@ -1309,7 +1309,7 @@
         <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
@@ -1357,16 +1357,16 @@
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
@@ -1381,13 +1381,13 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.51</v>
@@ -1426,13 +1426,13 @@
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>120</v>
@@ -1522,7 +1522,7 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
         <v>2.52</v>
@@ -1618,13 +1618,13 @@
         <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I9" t="n">
         <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K9" t="n">
         <v>9.6</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
@@ -1645,19 +1645,19 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="S9" t="n">
         <v>1.86</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1669,7 +1669,7 @@
         <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,22 +1678,22 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>70</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1762,7 +1762,7 @@
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.54</v>
@@ -1771,13 +1771,13 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O10" t="n">
         <v>1.51</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1792,10 +1792,10 @@
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
@@ -1807,13 +1807,13 @@
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
@@ -1831,7 +1831,7 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>290</v>
@@ -1852,7 +1852,7 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H11" t="n">
         <v>14.5</v>
@@ -1897,10 +1897,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1927,16 +1927,16 @@
         <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="Y11" t="n">
         <v>460</v>
@@ -1945,7 +1945,7 @@
         <v>210</v>
       </c>
       <c r="AA11" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="AB11" t="n">
         <v>20</v>
@@ -1957,7 +1957,7 @@
         <v>160</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF11" t="n">
         <v>13.5</v>
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>70</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
         <v>2.98</v>
@@ -2047,19 +2047,19 @@
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="Q12" t="n">
         <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>2.08</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U12" t="n">
         <v>2.88</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2095,7 +2095,7 @@
         <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2158,10 +2158,10 @@
         <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2176,10 +2176,10 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
         <v>2.66</v>
@@ -2188,16 +2188,16 @@
         <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
         <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2209,7 +2209,7 @@
         <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
@@ -2230,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2299,7 +2299,7 @@
         <v>2.14</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2329,7 +2329,7 @@
         <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.46</v>
@@ -2458,22 +2458,22 @@
         <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2482,10 +2482,10 @@
         <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2506,10 +2506,10 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2605,7 +2605,7 @@
         <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
         <v>1.98</v>
@@ -2707,10 +2707,10 @@
         <v>7.4</v>
       </c>
       <c r="K17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2731,10 +2731,10 @@
         <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
         <v>2.04</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2836,10 +2836,10 @@
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>3.9</v>
@@ -2854,25 +2854,25 @@
         <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
         <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
         <v>1.24</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Wofoo Tai Po</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.24</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>North District</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wofoo Tai Po</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.79</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.64</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>14.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
-        <v>1.41</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.09</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
         <v>970</v>
       </c>
-      <c r="Y4" t="n">
-        <v>32</v>
-      </c>
       <c r="Z4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
         <v>970</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD4" t="n">
         <v>85</v>
       </c>
-      <c r="AC4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG4" t="n">
         <v>40</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>36</v>
       </c>
-      <c r="AF4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Nk Posusje</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.24</v>
-      </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO5" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>11</v>
@@ -1216,61 +1216,61 @@
         <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W6" t="n">
         <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
         <v>48</v>
@@ -1282,37 +1282,37 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="n">
         <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="AK6" t="n">
         <v>210</v>
       </c>
       <c r="AL6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,43 +1342,43 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
         <v>4.2</v>
@@ -1387,10 +1387,10 @@
         <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>1.48</v>
@@ -1399,7 +1399,7 @@
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1414,13 +1414,13 @@
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
         <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
@@ -1432,22 +1432,22 @@
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
         <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1495,46 +1495,46 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>2.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
         <v>40</v>
@@ -1582,7 +1582,7 @@
         <v>270</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
@@ -1648,22 +1648,22 @@
         <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X9" t="n">
         <v>55</v>
@@ -1678,34 +1678,34 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1765,34 +1765,34 @@
         <v>3.35</v>
       </c>
       <c r="L10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.54</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.51</v>
-      </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
         <v>1.24</v>
@@ -1801,28 +1801,28 @@
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
         <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1831,28 +1831,28 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
         <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -1885,19 +1885,19 @@
         <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.16</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
@@ -1915,25 +1915,25 @@
         <v>4.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S11" t="n">
         <v>1.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>380</v>
@@ -1942,13 +1942,13 @@
         <v>460</v>
       </c>
       <c r="Z11" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AA11" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="n">
         <v>48</v>
@@ -1957,7 +1957,7 @@
         <v>160</v>
       </c>
       <c r="AE11" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AF11" t="n">
         <v>13.5</v>
@@ -1984,10 +1984,10 @@
         <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
         <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2050,22 +2050,22 @@
         <v>2.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
         <v>2.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2074,7 +2074,7 @@
         <v>85</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2101,13 +2101,13 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
         <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AK12" t="n">
         <v>65</v>
@@ -2164,10 +2164,10 @@
         <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2179,16 +2179,16 @@
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
         <v>2.46</v>
@@ -2203,7 +2203,7 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X13" t="n">
         <v>25</v>
@@ -2224,19 +2224,19 @@
         <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2251,13 +2251,13 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
         <v>5.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>5.3</v>
@@ -2317,82 +2317,82 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
         <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
         <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>48</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>85</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL14" t="n">
         <v>100</v>
       </c>
       <c r="AM14" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15">
@@ -2440,25 +2440,25 @@
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
         <v>4.1</v>
@@ -2470,7 +2470,7 @@
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
         <v>1.84</v>
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>27</v>
@@ -2488,7 +2488,7 @@
         <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2497,16 +2497,16 @@
         <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>70</v>
@@ -2515,7 +2515,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>46</v>
@@ -2524,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>65</v>
@@ -2569,28 +2569,28 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>1.32</v>
@@ -2599,10 +2599,10 @@
         <v>3.55</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.28</v>
@@ -2611,7 +2611,7 @@
         <v>1.98</v>
       </c>
       <c r="X16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2620,13 +2620,13 @@
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2698,52 +2698,52 @@
         <v>1.19</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="K17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="S17" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
         <v>1.05</v>
       </c>
       <c r="W17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2839,40 +2839,40 @@
         <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
         <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.27</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.69</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.24</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.66</v>
+        <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
         <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO2" t="n">
         <v>32</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="n">
         <v>12.5</v>
       </c>
       <c r="H3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.41</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.45</v>
-      </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>3.1</v>
@@ -847,43 +847,43 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.08</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG3" t="n">
         <v>42</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>100</v>
       </c>
       <c r="AH3" t="n">
         <v>80</v>
@@ -892,22 +892,22 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.52</v>
@@ -961,49 +961,49 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
         <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>14</v>
@@ -1015,10 +1015,10 @@
         <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>85</v>
@@ -1027,13 +1027,13 @@
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1105,13 +1105,13 @@
         <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R5" t="n">
         <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
         <v>2.06</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1240,7 +1240,7 @@
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1249,28 +1249,28 @@
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>48</v>
@@ -1282,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="n">
         <v>100</v>
@@ -1297,19 +1297,19 @@
         <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="AK6" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AL6" t="n">
         <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="I7" t="n">
         <v>2.84</v>
@@ -1357,7 +1357,7 @@
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
         <v>1.49</v>
@@ -1372,13 +1372,13 @@
         <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>4.2</v>
@@ -1393,13 +1393,13 @@
         <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="I8" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1501,22 +1501,22 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
         <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1525,10 +1525,10 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1546,7 +1546,7 @@
         <v>48</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1582,7 +1582,7 @@
         <v>270</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -1621,13 +1621,13 @@
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.21</v>
@@ -1651,13 +1651,13 @@
         <v>2</v>
       </c>
       <c r="S9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.87</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
@@ -1669,7 +1669,7 @@
         <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1693,7 +1693,7 @@
         <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1771,7 +1771,7 @@
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
         <v>1.54</v>
@@ -1780,79 +1780,79 @@
         <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC10" t="n">
         <v>13</v>
       </c>
-      <c r="Z10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
         <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="I11" t="n">
         <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.16</v>
@@ -1906,34 +1906,34 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.26</v>
       </c>
       <c r="R11" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="S11" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
         <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="X11" t="n">
         <v>380</v>
@@ -1948,22 +1948,22 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
         <v>160</v>
       </c>
       <c r="AE11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>70</v>
@@ -1972,22 +1972,22 @@
         <v>400</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="AO11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2041,31 +2041,31 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q12" t="n">
         <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U12" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2152,70 +2152,70 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.52</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.53</v>
-      </c>
       <c r="H13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>7</v>
       </c>
-      <c r="I13" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
         <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
         <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
@@ -2236,7 +2236,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2251,13 +2251,13 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO13" t="n">
         <v>75</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.3</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
@@ -2320,52 +2320,52 @@
         <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
         <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2374,7 +2374,7 @@
         <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>190</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
@@ -2446,7 +2446,7 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
@@ -2470,10 +2470,10 @@
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2524,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO15" t="n">
         <v>65</v>
@@ -2566,13 +2566,13 @@
         <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2593,19 +2593,19 @@
         <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
         <v>1.98</v>
@@ -2623,10 +2623,10 @@
         <v>300</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G17" t="n">
         <v>1.19</v>
@@ -2701,49 +2701,49 @@
         <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="K17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
         <v>1.05</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2767,7 +2767,7 @@
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>1.87</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
@@ -2839,13 +2839,13 @@
         <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2857,16 +2857,16 @@
         <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.96</v>
@@ -2878,7 +2878,7 @@
         <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2893,10 +2893,10 @@
         <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>North District</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wofoo Tai Po</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="T2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V2" t="n">
         <v>3.6</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.64</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>10</v>
       </c>
-      <c r="Z2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15</v>
-      </c>
       <c r="AE2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="n">
         <v>36</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>850</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10.5</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>12.5</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38</v>
+        <v>5.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.41</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>3.4</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.08</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.8</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.5</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.5</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN3" t="n">
         <v>44</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>510</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>790</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>310</v>
-      </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Nk Posusje</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.52</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN4" t="n">
         <v>29</v>
       </c>
-      <c r="AK4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>55</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nk Posusje</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.96</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="W5" t="n">
         <v>1.11</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL5" t="n">
         <v>150</v>
       </c>
-      <c r="AB5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>65</v>
-      </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.800000000000001</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>2.74</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD6" t="n">
         <v>13</v>
       </c>
-      <c r="AB6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
       <c r="AE6" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
         <v>44</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>290</v>
-      </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>1.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>1.21</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.65</v>
+        <v>13.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>16.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.48</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>5.1</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>270</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.21</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="S9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X9" t="n">
         <v>9.4</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>55</v>
-      </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.1</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.7</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.08</v>
-      </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>380</v>
       </c>
       <c r="Y10" t="n">
+        <v>460</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>2.36</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>12.5</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>9.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="W11" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>460</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL11" t="n">
         <v>70</v>
       </c>
-      <c r="AI11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
       <c r="AM11" t="n">
-        <v>430</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.64</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>1.52</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S12" t="n">
         <v>2.48</v>
       </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.14</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.92</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X12" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
       </c>
       <c r="AD12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
         <v>75</v>
       </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>200</v>
-      </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.51</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
-        <v>2.92</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.5</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AB15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC15" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN15" t="n">
         <v>55</v>
       </c>
-      <c r="AF15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,72 +2543,72 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>2.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>1.66</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>5.1</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,49 +2617,49 @@
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>2.94</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,87 +2678,87 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.18</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.19</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>1.66</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>5.1</v>
+        <v>2.02</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>1000</v>
@@ -2767,7 +2767,7 @@
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2791,147 +2791,12 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.2</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="n">
         <v>130</v>
       </c>
-      <c r="AG2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>800</v>
+        <v>530</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.2</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.24</v>
-      </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
         <v>6.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
         <v>2.26</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
         <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
         <v>9.6</v>
@@ -1003,13 +1003,13 @@
         <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>250</v>
@@ -1036,7 +1036,7 @@
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>790</v>
       </c>
       <c r="AN4" t="n">
         <v>29</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="J5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
         <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1213,79 +1213,79 @@
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
         <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB6" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10</v>
-      </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1366,40 +1366,40 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1411,10 +1411,10 @@
         <v>48</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1426,7 +1426,7 @@
         <v>55</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>85</v>
@@ -1447,7 +1447,7 @@
         <v>270</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="I8" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
         <v>2.04</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
@@ -1555,31 +1555,31 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1624,40 +1624,40 @@
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
@@ -1666,58 +1666,58 @@
         <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
         <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1753,25 +1753,25 @@
         <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.06</v>
@@ -1780,25 +1780,25 @@
         <v>5.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="R10" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>380</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AD10" t="n">
         <v>160</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>36</v>
@@ -1837,13 +1837,13 @@
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
         <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>430</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
         <v>1.43</v>
@@ -1930,64 +1930,64 @@
         <v>3.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
         <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="G12" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2044,85 +2044,85 @@
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
         <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AG12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2155,28 +2155,28 @@
         <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
         <v>2.18</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2185,10 +2185,10 @@
         <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
         <v>2.36</v>
@@ -2197,13 +2197,13 @@
         <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
         <v>48</v>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="n">
         <v>16</v>
@@ -2248,7 +2248,7 @@
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
         <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
         <v>1.99</v>
@@ -2434,7 +2434,7 @@
         <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.85</v>
@@ -2446,28 +2446,28 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
@@ -2476,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>300</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2518,16 +2518,16 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.18</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P16" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,49 +2617,49 @@
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>4.6</v>
@@ -2704,7 +2704,7 @@
         <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
@@ -2716,16 +2716,16 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
@@ -2734,16 +2734,16 @@
         <v>4</v>
       </c>
       <c r="T17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
       </c>
       <c r="V17" t="n">
         <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2758,7 +2758,7 @@
         <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>1000</v>
@@ -2791,7 +2791,7 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>1.18</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.71</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="S2" t="n">
-        <v>5.8</v>
+        <v>19</v>
       </c>
       <c r="T2" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="V2" t="n">
-        <v>6.2</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB2" t="n">
         <v>4.2</v>
       </c>
-      <c r="Z2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>530</v>
+        <v>310</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Nk Posusje</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.54</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="n">
         <v>110</v>
       </c>
-      <c r="AF3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO3" t="n">
         <v>130</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nk Posusje</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>1.46</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>1.48</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.11</v>
       </c>
-      <c r="N4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>640</v>
       </c>
       <c r="AM4" t="n">
-        <v>790</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
         <v>65</v>
       </c>
-      <c r="AG5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN5" t="n">
         <v>44</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>180</v>
-      </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>6.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>1.67</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD6" t="n">
         <v>10</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13</v>
-      </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>240</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>1.18</v>
       </c>
       <c r="G7" t="n">
-        <v>7.2</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.66</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.05</v>
       </c>
-      <c r="N7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11</v>
       </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>240</v>
-      </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>270</v>
+        <v>2.98</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.22</v>
       </c>
-      <c r="H8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="W8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X8" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>70</v>
-      </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.6</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.16</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>9.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>14</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>5.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>1.17</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>2.86</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>1.46</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>2.04</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="Y9" t="n">
+        <v>460</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>14</v>
       </c>
-      <c r="Z9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="AN9" t="n">
-        <v>19.5</v>
+        <v>2.14</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>16.5</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="n">
         <v>19.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>380</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>460</v>
-      </c>
       <c r="Z10" t="n">
-        <v>260</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
         <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>48</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN10" t="n">
         <v>17</v>
       </c>
-      <c r="AH10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.36</v>
-      </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W11" t="n">
         <v>3.15</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>12</v>
       </c>
-      <c r="AE11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>5.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.46</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>2.16</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>2.26</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
         <v>5.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.79</v>
       </c>
       <c r="W12" t="n">
-        <v>3.15</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>28</v>
       </c>
-      <c r="AE12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.4</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.28</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.64</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
         <v>21</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16</v>
-      </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="X14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
         <v>12</v>
       </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
         <v>65</v>
       </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,72 +2408,72 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>3.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.27</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2482,34 +2482,34 @@
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,22 +2518,22 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>3.05</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,72 +2543,72 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="H16" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>3.7</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>1.72</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,34 +2617,34 @@
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2656,147 +2656,12 @@
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Nk Posusje</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.97</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="K2" t="n">
-        <v>2.76</v>
+        <v>1.89</v>
       </c>
       <c r="L2" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.19</v>
       </c>
-      <c r="Q2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>95</v>
+        <v>2.24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>310</v>
+        <v>6.2</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nk Posusje</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>PFC Levski Sofia</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>10.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>5.3</v>
+        <v>1.08</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>9.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.46</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1.68</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>2.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>17.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>3.45</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>3.1</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>3.95</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.8</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AJ4" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
-        <v>640</v>
+        <v>430</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.6</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>2.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.2</v>
+        <v>1.16</v>
       </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>1.17</v>
       </c>
       <c r="H6" t="n">
-        <v>1.6</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>1.67</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.05</v>
       </c>
-      <c r="N6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
         <v>11</v>
       </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
         <v>14</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10</v>
       </c>
-      <c r="AE6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>240</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK6" t="n">
-        <v>420</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>270</v>
+        <v>2.74</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.18</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.98</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.13</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>19.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>5.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>1.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>2.96</v>
       </c>
       <c r="S8" t="n">
-        <v>4.9</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>6.6</v>
       </c>
       <c r="X8" t="n">
-        <v>9.800000000000001</v>
+        <v>130</v>
       </c>
       <c r="Y8" t="n">
+        <v>160</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>22</v>
-      </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>2.02</v>
       </c>
       <c r="AO8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.16</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.18</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>2.08</v>
       </c>
       <c r="J9" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.13</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.05</v>
-      </c>
       <c r="P9" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>2.86</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
         <v>28</v>
       </c>
       <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK9" t="n">
         <v>32</v>
       </c>
-      <c r="AD9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16</v>
-      </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.14</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>1.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.13</v>
       </c>
-      <c r="P10" t="n">
+      <c r="W10" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="AB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL10" t="n">
         <v>27</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
       <c r="AM10" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
         <v>32</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AF11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
         <v>65</v>
       </c>
-      <c r="AA11" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK11" t="n">
         <v>90</v>
       </c>
-      <c r="AF11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.4</v>
+        <v>19.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.16</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X12" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="n">
         <v>48</v>
       </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.65</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W14" t="n">
         <v>4.3</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.97</v>
-      </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
         <v>85</v>
       </c>
-      <c r="AA14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>2.92</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,87 +2408,87 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>8.800000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2497,172 +2497,37 @@
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.05</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nk Posusje</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>1.19</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>1.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1.89</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,52 +733,52 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.24</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.2</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>280</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFC Levski Sofia</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.1</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.08</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>1.06</v>
+        <v>2.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>1.14</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>1.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>2.44</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>2.48</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="M4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>1.19</v>
+        <v>8.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>1.11</v>
       </c>
       <c r="R4" t="n">
-        <v>1.05</v>
+        <v>3.85</v>
       </c>
       <c r="S4" t="n">
-        <v>17.5</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>3.45</v>
+        <v>1.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>2.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
-        <v>3.95</v>
+        <v>180</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>220</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.4</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI4" t="n">
         <v>130</v>
       </c>
-      <c r="AF4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>410</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>430</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>330</v>
+        <v>1.84</v>
       </c>
       <c r="AO4" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="U5" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="V5" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AD5" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>24</v>
       </c>
-      <c r="AH5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11.5</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL6" t="n">
         <v>28</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>38</v>
-      </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.51</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.32</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>790</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.13</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>19.5</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>5.9</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.16</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>2.96</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>6.6</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>160</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.02</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.08</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X9" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.18</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.58</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>2.84</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>1.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
         <v>90</v>
       </c>
-      <c r="AF10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
         <v>75</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>90</v>
-      </c>
       <c r="AN10" t="n">
-        <v>5.4</v>
+        <v>2.62</v>
       </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,666 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>48</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Cruzeiro MG</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Botafogo FR</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Bolivar</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Nacional Potosi</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19</v>
+        <v>300</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>1.14</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>1.15</v>
       </c>
       <c r="J2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>7.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,52 +733,52 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>1.42</v>
       </c>
       <c r="AE2" t="n">
-        <v>320</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>7.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>630</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="N3" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.96</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AI3" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.15</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>19</v>
       </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="AF4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>7.6</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>24</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.15</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W7" t="n">
         <v>4.5</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="Z7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>2.68</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,530 +1463,125 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.27</v>
       </c>
-      <c r="S8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
         <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>17</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Bolivar</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Nacional Potosi</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO11" t="n">
         <v>50</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="I2" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,43 +691,43 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V2" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,25 +736,25 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.42</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="H3" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.05</v>
       </c>
-      <c r="S3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>8.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>990</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AI4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
         <v>23</v>
       </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>15.5</v>
       </c>
       <c r="O5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.45</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
         <v>23</v>
       </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
       <c r="AI5" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>2.68</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,396 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.8</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
         <v>46</v>
       </c>
-      <c r="AA6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO6" t="n">
         <v>40</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bolivar</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Nacional Potosi</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.24</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,43 +691,43 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>170</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,22 +736,22 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,531 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>19.5</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>4.2</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="n">
         <v>230</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>570</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bolivar</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nacional Potosi</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>960</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:35:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA6" t="n">
         <v>140</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
